--- a/trendData.xlsx
+++ b/trendData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -632,9 +632,216 @@
         <v>2024-10-19T12:12:13.415</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B11" t="str">
+        <v>111</v>
+      </c>
+      <c r="C11" t="str">
+        <v>AA111</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Heart Rate</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Increasing</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2024-11-04T06:54:28.223</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B12" t="str">
+        <v>111</v>
+      </c>
+      <c r="C12" t="str">
+        <v>AA111</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Blood Pressure</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Decreasing</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2024-11-04T06:54:44.224</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B13" t="str">
+        <v>111</v>
+      </c>
+      <c r="C13" t="str">
+        <v>AA111</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Oxygen Saturation</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Decreasing</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2024-11-04T06:55:08.077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B14" t="str">
+        <v>112</v>
+      </c>
+      <c r="C14" t="str">
+        <v>AA112</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Blood Pressure</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Decreasing</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2024-11-04T06:58:10.855</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B15" t="str">
+        <v>112</v>
+      </c>
+      <c r="C15" t="str">
+        <v>AA112</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Heart Rate</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Increasing</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2024-11-04T06:58:17.154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B16" t="str">
+        <v>112</v>
+      </c>
+      <c r="C16" t="str">
+        <v>AA112</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Oxygen Saturation</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Increasing</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2024-11-04T06:58:17.772</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B17" t="str">
+        <v>113</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Aa1123</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Heart Rate</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Increasing</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2024-11-04T07:02:43.104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B18" t="str">
+        <v>113</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Aa1123</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Oxygen Saturation</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Static</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2024-11-04T07:02:47.245</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2024-11-04</v>
+      </c>
+      <c r="B19" t="str">
+        <v>113</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Aa1123</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Blood Pressure</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Decreasing</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2024-11-04T07:02:55.084</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
   </ignoredErrors>
 </worksheet>
 </file>